--- a/back/doc/back设计文档.xlsx
+++ b/back/doc/back设计文档.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYW-DaLian\Desktop\设计文档\back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBC8F58-C3AB-439D-A9C6-43D9CD339394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72F538F-17D7-4D0A-B857-E49C22110A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="功能概要" sheetId="1" r:id="rId1"/>
+    <sheet name="模块分化" sheetId="1" r:id="rId1"/>
+    <sheet name="Tool" sheetId="2" r:id="rId2"/>
+    <sheet name="Debug" sheetId="4" r:id="rId3"/>
+    <sheet name="Json" sheetId="5" r:id="rId4"/>
+    <sheet name="Dbus" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +28,161 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+  <si>
+    <t>模块职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数据打包成cJson格式，为其他模块提供接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本程序为C++程序，这里使用的是cJson的源码。所以此模块选择适配器模式，
+将c接口包装成C++字符串的接口给别的模块使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此模块网上有轮子，但是我还是决定自己写一下，锻炼下我的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cJson源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供各种接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonAdapter类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addValueToNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配器功能，转化c接口成c++的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充节点数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addNodeToNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把一个节点安到另一个节点上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getStrFromNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonAdapter.cpp;jsonAdapter,h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块代码接口（详细请查看文件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以传入节点为根，取json格式字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUnFormatStrFromNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以传入节点为根，取无格式字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parseNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从节点中解析解析出json成员变量的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>it@github.com:DaveGamble/cJSON.git  源码</t>
+    </r>
+  </si>
+  <si>
+    <t>Node类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node.cpp;Node.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了将Json抽象成一个对象，方便适配器使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isValid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值为当前对象节点是否是空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便使用，详见代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写了构成，和一些运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用C的接口封一个C++的Dbus玩玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此模块用于与其他程序通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.给别的模块提供通信接口
+2.自己有一个线程，用于接收数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,16 +197,57 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,15 +255,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -86,15 +329,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -109,7 +352,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6467475" y="1657350"/>
+          <a:off x="6515100" y="123825"/>
           <a:ext cx="2009775" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -403,12 +646,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>614363</xdr:colOff>
+      <xdr:colOff>661988</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -428,8 +671,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5086351" y="2847975"/>
-          <a:ext cx="2386012" cy="962025"/>
+          <a:off x="5086351" y="1314450"/>
+          <a:ext cx="2433637" cy="2495550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -459,12 +702,12 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>576263</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>614363</xdr:colOff>
+      <xdr:colOff>661988</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
@@ -484,8 +727,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7434263" y="2847975"/>
-          <a:ext cx="38100" cy="971551"/>
+          <a:off x="7434263" y="1314450"/>
+          <a:ext cx="85725" cy="2505076"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -514,9 +757,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>614363</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -540,8 +783,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7472363" y="2847975"/>
-          <a:ext cx="2490788" cy="1000126"/>
+          <a:off x="7519988" y="1314450"/>
+          <a:ext cx="2443163" cy="2533651"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -569,16 +812,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -593,7 +836,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10267949" y="1914524"/>
+          <a:off x="10848974" y="1685924"/>
           <a:ext cx="1476375" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -652,16 +895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -674,13 +917,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="1"/>
-          <a:endCxn id="2" idx="3"/>
+          <a:endCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8477250" y="2252663"/>
-          <a:ext cx="1790699" cy="57149"/>
+          <a:off x="7519988" y="1314450"/>
+          <a:ext cx="3328986" cy="766762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -762,7 +1005,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Log</a:t>
+            <a:t>Debug</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -793,12 +1036,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
@@ -813,13 +1056,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="3"/>
-          <a:endCxn id="2" idx="1"/>
+          <a:endCxn id="2" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4829175" y="2252663"/>
-          <a:ext cx="1638300" cy="57150"/>
+          <a:off x="4829175" y="1314450"/>
+          <a:ext cx="2690813" cy="995363"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -843,6 +1086,424 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形: 圆角 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A591B58E-3CB8-4A5A-987A-698EC9969660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10696575" y="2981325"/>
+          <a:ext cx="1428750" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Dbus</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>通信的数据格式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4C3F70A-DADB-4D95-8694-76F5D45EF87B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7519988" y="1314450"/>
+          <a:ext cx="4605337" cy="2109788"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形: 圆角 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C39CEDA-47FF-4232-8A98-629F336E76DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="2990850"/>
+          <a:ext cx="1562100" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Tool</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>放置一些工具函数，和工具类</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108EE55B-E94D-44A9-83B9-A2BF7652126A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4324350" y="1314450"/>
+          <a:ext cx="3195638" cy="2043113"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2E2A5A-2D0A-49A4-BF00-303DEBD4F27F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="1571625"/>
+          <a:ext cx="6276975" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="3200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t>本模块作用是将一些公用算法函数和公用类的集合，提供给其他模块使用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 圆角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F4776A-9D79-41F8-9B4C-EE06A92BB92E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="2085975"/>
+          <a:ext cx="3219450" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>back</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>程序很小，所以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>log</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>基本在初期创作的时候进行调试用，不做存储。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1113,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1124,4 +1785,253 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25CEDCB-7B8A-4349-8399-24F84D324F23}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261BE5EA-712C-4589-9EA6-B762E04A4759}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E0F3A3-D8B7-4B39-85B4-FBCD01470C98}">
+  <dimension ref="B1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{4CA2370D-3C48-423F-A64A-1846D335FC63}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28B073-098F-442F-AE81-835DC267FAEB}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="34.25" customWidth="1"/>
+    <col min="4" max="4" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/back/doc/back设计文档.xlsx
+++ b/back/doc/back设计文档.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYW-DaLian\Desktop\设计文档\back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72F538F-17D7-4D0A-B857-E49C22110A51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD999422-2F91-4BE4-875F-3B83A96C3887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模块分化" sheetId="1" r:id="rId1"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重写了构成，和一些运算符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用C的接口封一个C++的Dbus玩玩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +171,10 @@
   <si>
     <t>1.给别的模块提供通信接口
 2.自己有一个线程，用于接收数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写了构造函数，和一些运算符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,14 +278,8 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -295,9 +289,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,6 +299,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1504,6 +1504,137 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="椭圆 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19F5EA26-C686-4FD1-AA30-1D8E2D4C4775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="0"/>
+          <a:ext cx="2647950" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>移植</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>dbus</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的过程差点没给我累死，网上文档全是坑。搞了一天才搞定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2219325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7080237-B322-47A4-B811-EA03B80D84F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6200775" y="438150"/>
+          <a:ext cx="1343025" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1826,7 +1957,7 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1837,52 +1968,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1893,52 +2024,52 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1949,20 +2080,20 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1989,7 +2120,7 @@
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1999,31 +2130,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="10"/>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="10"/>
+      <c r="C4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2033,5 +2164,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/back/doc/back设计文档.xlsx
+++ b/back/doc/back设计文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYW-DaLian\Desktop\设计文档\back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD999422-2F91-4BE4-875F-3B83A96C3887}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CBC8E4-2286-4E07-BF17-223513C78D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="28770" windowHeight="15600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模块分化" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Debug" sheetId="4" r:id="rId3"/>
     <sheet name="Json" sheetId="5" r:id="rId4"/>
     <sheet name="Dbus" sheetId="6" r:id="rId5"/>
+    <sheet name="Beat" sheetId="7" r:id="rId6"/>
+    <sheet name="Hard" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>模块职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +177,165 @@
   </si>
   <si>
     <t>重写了构造函数，和一些运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块接口代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbusAdapter类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbusAdapter.cpp\DbusAdapter.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供dubs链接总线的句柄，和发送
+信号的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionBus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取链接总线句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setDbusWellKnownName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给总线连接的句柄一个名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendASignal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送一个信号出去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbusReceive类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbusReceive.cpp\DbusReceive.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供线程监听dbus信号类消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供单例指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addListenSig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加监听信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>processTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到消息后分发处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启线程监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控hmi程序运行情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beat类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beat.cpp\Beat.h</t>
+  </si>
+  <si>
+    <t>心跳检测处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setRecBeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置是否收到心跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到hmi消息将一个变量置为ture，读取线程循环读值读到ture再给置为false，读到false重启板子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与硬件直接打交道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端命令下发到硬件执行，硬件采集信
+息上报云端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.提供接口，给其他模块操控硬件
+2.开一个线程，循环采集信息，调用dbus接口上报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HardMaster类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HardMaster.cpp/.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件主控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程，上传信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务处理函数，根据参
+数id分发处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -270,12 +431,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -288,6 +506,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -305,6 +539,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1354,6 +1615,69 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5228A1-BF89-48FD-B86A-B2480AA7031E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="180975"/>
+          <a:ext cx="2495550" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>此文档只标注了各个模块的接口函数，和重要的功能函数。具体细节详见代码</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1575,7 +1899,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的过程差点没给我累死，网上文档全是坑。搞了一天才搞定</a:t>
+            <a:t>的过程差点没给我累死，网上文档全是坑。搞了两天才搞定</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1906,7 +2230,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1971,35 +2295,35 @@
       <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -2013,7 +2337,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2024,7 +2348,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2033,7 +2357,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2042,7 +2366,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
@@ -2051,7 +2375,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2060,7 +2384,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
@@ -2069,7 +2393,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2080,7 +2404,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
@@ -2089,7 +2413,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
@@ -2117,14 +2441,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28B073-098F-442F-AE81-835DC267FAEB}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="34.25" customWidth="1"/>
     <col min="4" max="4" width="30.25" customWidth="1"/>
   </cols>
@@ -2133,37 +2458,310 @@
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="19"/>
+      <c r="C13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="19"/>
+      <c r="C15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="19"/>
+      <c r="C16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="B12:B16"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5D6CCE-069C-4592-8BFB-4CD301C189B2}">
+  <dimension ref="B2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="24"/>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="25"/>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B6:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F239CEA-EBEC-4F8A-B765-46C605C3EB61}">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B7:B10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/back/doc/back设计文档.xlsx
+++ b/back/doc/back设计文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYW-DaLian\Desktop\设计文档\back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CBC8E4-2286-4E07-BF17-223513C78D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B75EE-B590-452C-B1F0-3AAEDF502927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模块分化" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Dbus" sheetId="6" r:id="rId5"/>
     <sheet name="Beat" sheetId="7" r:id="rId6"/>
     <sheet name="Hard" sheetId="8" r:id="rId7"/>
+    <sheet name="Ota" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>模块职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,16 +327,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线程，上传信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务处理函数，根据参
 数id分发处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个好的产品怎么能没有ota呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器发布可以升级，客户手动选择。板子里有两个文件夹。
+最开始两个文件里程序都是初始版本，开始迭代后。每次新
+版将会更替到旧版，如果升级后的文件损坏，也可以使用旧版从新升级</t>
+  </si>
+  <si>
+    <t>服务器有新版本，或修改了bug。远程通知客户进行升级，
+由于使用了http。所有log日志上传也写在这个模块里了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogUpload类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogUpload.h/.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传log到服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>单例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setHttpPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置上传的网络路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ota类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ota.h/.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去服务器指定路径下载程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置下载路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启线程下载新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启线程，上传log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -462,38 +532,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,6 +570,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,18 +604,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,15 +703,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -688,8 +726,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6486526" y="3819526"/>
-          <a:ext cx="1895474" cy="628649"/>
+          <a:off x="6457950" y="3819526"/>
+          <a:ext cx="1924050" cy="752474"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -739,6 +777,22 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>程序</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>与</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>log</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上传功能</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -962,7 +1016,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>576263</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -988,8 +1042,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7434263" y="1314450"/>
-          <a:ext cx="85725" cy="2505076"/>
+          <a:off x="7419975" y="1314450"/>
+          <a:ext cx="100013" cy="2505076"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1959,6 +2013,86 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 圆角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296BF736-DE9E-467A-9411-A155F8C288C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591550" y="495300"/>
+          <a:ext cx="3581400" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>http</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上传用的网上写的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>demo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。本想自己写了，但发现人家写的确实不错。就仔细把人家的代码研究了一遍。给它加上注释。这样过一遍，技术就算吃下了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2230,7 +2364,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2295,35 +2429,35 @@
       <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="2:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -2337,7 +2471,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2348,7 +2482,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2357,7 +2491,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="13"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2366,7 +2500,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
@@ -2375,7 +2509,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2384,7 +2518,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
@@ -2393,7 +2527,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2404,7 +2538,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
@@ -2413,7 +2547,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
@@ -2458,38 +2592,38 @@
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2500,7 +2634,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="13"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="9" t="s">
         <v>37</v>
       </c>
@@ -2509,7 +2643,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="9" t="s">
         <v>39</v>
       </c>
@@ -2518,7 +2652,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="9" t="s">
         <v>41</v>
       </c>
@@ -2527,7 +2661,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2538,7 +2672,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
         <v>46</v>
       </c>
@@ -2547,7 +2681,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
         <v>48</v>
       </c>
@@ -2556,7 +2690,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
         <v>50</v>
       </c>
@@ -2565,7 +2699,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="10" t="s">
         <v>52</v>
       </c>
@@ -2590,10 +2724,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5D6CCE-069C-4592-8BFB-4CD301C189B2}">
-  <dimension ref="B2:D8"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2607,32 +2741,32 @@
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2643,7 +2777,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="24"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
@@ -2652,12 +2786,21 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="25"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +2808,7 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2677,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F239CEA-EBEC-4F8A-B765-46C605C3EB61}">
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2692,31 +2835,31 @@
       <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2727,25 +2870,25 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="13"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>71</v>
+      <c r="D9" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="13"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
@@ -2764,4 +2907,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E70CD7B-1CA5-4868-AA4F-954A0047AFC3}">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="2:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="15"/>
+      <c r="C8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="15"/>
+      <c r="C10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="15"/>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
+      <c r="C14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/back/doc/back设计文档.xlsx
+++ b/back/doc/back设计文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYW-DaLian\Desktop\设计文档\back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B75EE-B590-452C-B1F0-3AAEDF502927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5394740-6F08-4E1D-9FDE-7CCA4A00908D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1889,6 +1889,118 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>684656</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B00BBBA-504B-4DED-9B1B-2E88CF541E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="4819650"/>
+          <a:ext cx="9152381" cy="7352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="对话气泡: 圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9AD906-50E5-44C7-951C-78E49C11F7F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="4352925"/>
+          <a:ext cx="800100" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>   示例</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2015,10 +2127,339 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>637171</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558C44A3-EDF1-4BE6-88C7-1F2D75E82FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="4972050"/>
+          <a:ext cx="8028571" cy="2466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1276349</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2114550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="对话气泡: 圆角矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D308C45E-90F1-4795-9DB6-99CB72419517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3047999" y="4391025"/>
+          <a:ext cx="838201" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发送信号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>294402</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B04FD58-FCA1-4205-8025-97D610845F2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8153400"/>
+          <a:ext cx="6980952" cy="2190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="对话气泡: 圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB2068E7-F639-4D45-9190-B9CA990A33BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="7620000"/>
+          <a:ext cx="790575" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>监听信号</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332602</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>170887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABC0239-960D-40D3-BEA3-A509EA042BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="11687175"/>
+          <a:ext cx="6180952" cy="4504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="对话气泡: 圆角矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04AD0DE8-E4CB-4F13-A68C-C6EF9DEF4593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2238375" y="10515600"/>
+          <a:ext cx="2562225" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>监听到信号发来的消息会以同步的方式以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>格式发送到次函数中，如有耗时处理，应在此处讲消息再放入对应模块的队列中，达成异步效果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2415,7 +2856,7 @@
   <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2570,6 +3011,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2577,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28B073-098F-442F-AE81-835DC267FAEB}">
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/back/doc/back设计文档.xlsx
+++ b/back/doc/back设计文档.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TYW-DaLian\Desktop\设计文档\back\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5394740-6F08-4E1D-9FDE-7CCA4A00908D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE97A8D-6E38-43F4-8B6F-BE1AFA7156F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模块分化" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
   <si>
     <t>模块职责</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,11 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任务处理函数，根据参
-数id分发处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一个好的产品怎么能没有ota呢？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,6 +401,41 @@
   </si>
   <si>
     <t>开启线程，上传log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openGpio23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getHardStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回硬件状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeGpio23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openLed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeLed</t>
+  </si>
+  <si>
+    <t>看名知意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -532,12 +562,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -604,6 +643,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3239,10 +3284,10 @@
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3260,10 +3305,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F239CEA-EBEC-4F8A-B765-46C605C3EB61}">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3301,7 +3346,7 @@
       <c r="D4" s="16"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3312,38 +3357,69 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="26"/>
       <c r="C9" s="9" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="26"/>
+      <c r="C11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="26"/>
+      <c r="C12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="26"/>
+      <c r="C13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="26"/>
+      <c r="C14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B7:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3355,7 +3431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E70CD7B-1CA5-4868-AA4F-954A0047AFC3}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -3371,7 +3447,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="16"/>
     </row>
@@ -3380,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="16"/>
     </row>
@@ -3389,84 +3465,84 @@
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="16"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="15"/>
       <c r="C8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
